--- a/biology/Microbiologie/Actinobacillus/Actinobacillus.xlsx
+++ b/biology/Microbiologie/Actinobacillus/Actinobacillus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Actinobacillus est un genre de bactéries de la famille des Pasteurellaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est décrit en 1910 par le bactériologiste français Émile Brumpt pour l'espèce type Actinobacillus lignieresii[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est décrit en 1910 par le bactériologiste français Émile Brumpt pour l'espèce type Actinobacillus lignieresii.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Actinobacillus est formé du grec ancien [ἀκτίς ἀκτῖνος] aktis (gen. aktînos), un rayon, et du latin bacillus, un petit bâton ou une tige ; Actinobacillus signifie donc « bacille (ou tige) à rayons »[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Actinobacillus est formé du grec ancien [ἀκτίς ἀκτῖνος] aktis (gen. aktînos), un rayon, et du latin bacillus, un petit bâton ou une tige ; Actinobacillus signifie donc « bacille (ou tige) à rayons ».
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (7 juillet 2021)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (7 juillet 2021) :
 Actinobacillus anseriformium Bisgaard &amp; Christensen, 2012
 Actinobacillus arthritidis Christensen et al., 2002
 Actinobacillus capsulatus Arseculeratne, 1962
@@ -592,7 +610,7 @@
 Actinobacillus succinogenes Guettler et al., 1999
 Actinobacillus suis van Dorssen &amp; Jaartsveld, 1962
 Actinobacillus ureae (Jones, 1962) Mutters et al., 1986
-Selon l'IRMNG  (7 juillet 2021)[4] :
+Selon l'IRMNG  (7 juillet 2021) :
 Actinobacillus actinomycetemcomitans (Klinger 1912) Topley &amp; Wilson, 1929
 Actinobacillus arthritidis Christensen et al., 2002
 Actinobacillus capsulatus Arseculeratne, 1962
